--- a/uwezo_api/data/mapping.xlsx
+++ b/uwezo_api/data/mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\elise\code\elise-fo\uwezo_api\uwezo_api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{674E84B7-C200-4D5A-9720-FD7656984B82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A8CE1-35F6-49B6-A875-6B80AC30A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,15 +231,6 @@
     <t>39.247090</t>
   </si>
   <si>
-    <t>-6.756363</t>
-  </si>
-  <si>
-    <t>39.247091</t>
-  </si>
-  <si>
-    <t>-6.756364</t>
-  </si>
-  <si>
     <t>39.247092</t>
   </si>
   <si>
@@ -319,6 +310,15 @@
   </si>
   <si>
     <t>_id</t>
+  </si>
+  <si>
+    <t>29.28</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>6.756363</t>
   </si>
 </sst>
 </file>
@@ -930,8 +930,8 @@
   </sheetPr>
   <dimension ref="A1:BF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -941,64 +941,64 @@
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
@@ -1053,7 +1053,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>10</v>
@@ -1153,7 +1153,7 @@
         <v>67</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>2</v>
@@ -1249,11 +1249,11 @@
       <c r="C4" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>69</v>
+      <c r="D4" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>3</v>
@@ -1347,13 +1347,13 @@
         <v>37</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -1447,13 +1447,13 @@
         <v>47</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>5</v>
@@ -1547,13 +1547,13 @@
         <v>55</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>6</v>
@@ -1647,13 +1647,13 @@
         <v>62</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>7</v>

--- a/uwezo_api/data/mapping.xlsx
+++ b/uwezo_api/data/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\elise\code\elise-fo\uwezo_api\uwezo_api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2A8CE1-35F6-49B6-A875-6B80AC30A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AAC90-F910-4E82-A77A-C38DD7674907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,7 +931,7 @@
   <dimension ref="A1:BF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/uwezo_api/data/mapping.xlsx
+++ b/uwezo_api/data/mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\elise\code\elise-fo\uwezo_api\uwezo_api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19AAC90-F910-4E82-A77A-C38DD7674907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BDD838-3A39-407E-8FF1-11D5933BE401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,27 +225,15 @@
     <t>39.247089</t>
   </si>
   <si>
-    <t>-6.756362</t>
-  </si>
-  <si>
     <t>39.247090</t>
   </si>
   <si>
-    <t>39.247092</t>
-  </si>
-  <si>
     <t>-6.756365</t>
   </si>
   <si>
-    <t>39.247093</t>
-  </si>
-  <si>
     <t>-6.756366</t>
   </si>
   <si>
-    <t>39.247094</t>
-  </si>
-  <si>
     <t>-6.756367</t>
   </si>
   <si>
@@ -319,6 +307,18 @@
   </si>
   <si>
     <t>6.756363</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>28.10</t>
+  </si>
+  <si>
+    <t>36.2</t>
+  </si>
+  <si>
+    <t>41.2</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
   <dimension ref="A1:BF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -941,64 +941,64 @@
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="S1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
@@ -1053,7 +1053,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>10</v>
@@ -1150,10 +1150,10 @@
         <v>66</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>2</v>
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>3</v>
@@ -1347,13 +1347,13 @@
         <v>37</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>38</v>
@@ -1447,13 +1447,13 @@
         <v>47</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>5</v>
@@ -1547,13 +1547,13 @@
         <v>55</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>6</v>
@@ -1647,13 +1647,13 @@
         <v>62</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>74</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>78</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>7</v>
